--- a/2-Reqs/SIQ22-02-2023.xlsx
+++ b/2-Reqs/SIQ22-02-2023.xlsx
@@ -101,25 +101,30 @@
       <sz val="26"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -127,6 +132,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -441,6 +447,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,10 +468,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,7 +688,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -694,26 +700,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -721,20 +727,20 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -858,10 +864,10 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
@@ -872,10 +878,10 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="16">
         <v>44979</v>
       </c>
@@ -886,8 +892,8 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="9"/>
       <c r="H13" s="19"/>
     </row>
